--- a/biology/Zoologie/Conus_zandbergeni/Conus_zandbergeni.xlsx
+++ b/biology/Zoologie/Conus_zandbergeni/Conus_zandbergeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus zandbergeni est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 25 mm et 42 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans l'Indo-Pacifique et se trouve aux Philippines, en Indonésie et dans les îles Salomon.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente aux Philippines et à Sabah. Les enregistrements des captures suggèrent qu'il s'agit d'une espèce commune. Il n'y a pas de menaces connues pour cette espèce. Elle est classée dans la catégorie "préoccupation mineure"[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente aux Philippines et à Sabah. Les enregistrements des captures suggèrent qu'il s'agit d'une espèce commune. Il n'y a pas de menaces connues pour cette espèce. Elle est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_zandbergeni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_zandbergeni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus zandbergeni a été décrite pour la première fois en 2010 par les malacologistes Robin Michael Filmer et Robert G. Moolenbeek (d) dans « Miscellanea Malacologica »[2],[3].
-Synonymes
-Conus (Phasmoconus) zandbergeni Filmer &amp; Moolenbeek, 2010 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus zandbergeni a été décrite pour la première fois en 2010 par les malacologistes Robin Michael Filmer et Robert G. Moolenbeek (d) dans « Miscellanea Malacologica »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_zandbergeni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_zandbergeni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) zandbergeni Filmer &amp; Moolenbeek, 2010 · appellation alternative
 Phasmoconus zandbergeni (Filmer &amp; Moolenbeek, 2010) · non accepté</t>
         </is>
       </c>
